--- a/excel/ingredient2018116.xlsx
+++ b/excel/ingredient2018116.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
   <si>
     <t>供餐日期</t>
   </si>
@@ -86,7 +86,7 @@
     <t>新加南食品行</t>
   </si>
   <si>
-    <t>25.8斤</t>
+    <t>15.0</t>
   </si>
   <si>
     <t>Y</t>
@@ -98,7 +98,7 @@
     <t>檸檬雞翅</t>
   </si>
   <si>
-    <t>90隻</t>
+    <t>7.199999999999999</t>
   </si>
   <si>
     <t>沙茶菇菇</t>
@@ -107,13 +107,13 @@
     <t>金針菇</t>
   </si>
   <si>
-    <t>4斤</t>
+    <t>2.4</t>
   </si>
   <si>
     <t>杏鮑菇</t>
   </si>
   <si>
-    <t>3斤</t>
+    <t>1.7999999999999998</t>
   </si>
   <si>
     <t>袖珍菇</t>
@@ -125,16 +125,13 @@
     <t>小白菜</t>
   </si>
   <si>
-    <t>8斤</t>
+    <t>4.8</t>
   </si>
   <si>
     <t>福菜竹筍排骨湯</t>
   </si>
   <si>
     <t>福菜</t>
-  </si>
-  <si>
-    <t>(庫存)</t>
   </si>
   <si>
     <t>竹筍</t>
@@ -546,9 +543,7 @@
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8" t="s">
-        <v>40</v>
-      </c>
+      <c r="N8"/>
       <c r="O8" t="s">
         <v>25</v>
       </c>
@@ -568,7 +563,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -591,9 +586,7 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
-      <c r="N9" t="s">
-        <v>40</v>
-      </c>
+      <c r="N9"/>
       <c r="O9" t="s">
         <v>25</v>
       </c>
@@ -613,7 +606,7 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
